--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2100.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2100.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.358476232150297</v>
+        <v>3.331892967224121</v>
       </c>
       <c r="B1">
-        <v>2.742028497391088</v>
+        <v>2.447057962417603</v>
       </c>
       <c r="C1">
-        <v>2.440301948952294</v>
+        <v>2.03644061088562</v>
       </c>
       <c r="D1">
-        <v>2.684208292330058</v>
+        <v>2.096269607543945</v>
       </c>
       <c r="E1">
-        <v>3.342238727402993</v>
+        <v>2.416609048843384</v>
       </c>
     </row>
   </sheetData>
